--- a/documentation/Design and Implementation/tests plans/Admin Testing Plan.xlsx
+++ b/documentation/Design and Implementation/tests plans/Admin Testing Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kv6003\documentation\Design and Implementation\tests plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9257A1B2-1312-4CA3-8EF2-777663915D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615569D6-9CD5-4AD7-A9C8-69AFA5133297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E7F4B9D-9D33-41BD-B485-93F172214F7C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E7F4B9D-9D33-41BD-B485-93F172214F7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Task</t>
   </si>
@@ -47,6 +47,108 @@
   </si>
   <si>
     <t>Actual Outcome</t>
+  </si>
+  <si>
+    <t>Admin sign in</t>
+  </si>
+  <si>
+    <t>Admin delete booking</t>
+  </si>
+  <si>
+    <t>Admin add email to email registry</t>
+  </si>
+  <si>
+    <t>Admin send email to customers</t>
+  </si>
+  <si>
+    <t>Admin Booking intervals</t>
+  </si>
+  <si>
+    <t>Admin set Opening closing hours correct</t>
+  </si>
+  <si>
+    <t>Admin set max occupancy correct</t>
+  </si>
+  <si>
+    <t>Admin set max occupancy incorrect</t>
+  </si>
+  <si>
+    <t>Admin set Opening closing hours incorrect</t>
+  </si>
+  <si>
+    <t>Admin Update Customer Comment Correct</t>
+  </si>
+  <si>
+    <t>Admin Update Customer Loyalty Points correct</t>
+  </si>
+  <si>
+    <t>Admin Update Customer Loyalty Points incorrect</t>
+  </si>
+  <si>
+    <t>The admin signs in to the system</t>
+  </si>
+  <si>
+    <t>Admin is logged in and navigated to the home page. They will have access to the Admin dashboard via navigation bar</t>
+  </si>
+  <si>
+    <t>Admin clicks delete booking on a booking slot in the admin page.</t>
+  </si>
+  <si>
+    <t>The booking is deleted from the database and the page refreshes showing that the booking has gone.</t>
+  </si>
+  <si>
+    <t>Admin updates the comment attached to the customer on the customer page.</t>
+  </si>
+  <si>
+    <t>Admin clicks update, a modal shows up and the user types in anything they want. The page will refresh reflecting the update</t>
+  </si>
+  <si>
+    <t>Admin updates the Loyalty attached to the customer on the customer page.</t>
+  </si>
+  <si>
+    <t>Admin clicks update, a modal shows up and the user types in integer value. The page will refresh reflecting the update</t>
+  </si>
+  <si>
+    <t>Admin updates the Loyalty attached to the customer on the customer page but uses a value other than integer</t>
+  </si>
+  <si>
+    <t>Admin clicks update, a modal shows up and the user types in string value. The update will not occur and a box will remind themn to use integers</t>
+  </si>
+  <si>
+    <t>Admin selects a checkbox located next to a customers name.</t>
+  </si>
+  <si>
+    <t>The customers email address gets added to the text field area at the top of the page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin types a message in the text area underneath the email registry. Clicks submit </t>
+  </si>
+  <si>
+    <t>The message typed in the text area gets sent to the customers email.</t>
+  </si>
+  <si>
+    <t>Admin chooses a booking interval in the settings page and clicks update.</t>
+  </si>
+  <si>
+    <t>The page refreshes and reflects the updated booking interval</t>
+  </si>
+  <si>
+    <t>Admin updates the max occupancy on the settings page and clicks update.</t>
+  </si>
+  <si>
+    <t>Admin types an integer value and the page refreshes updating the change</t>
+  </si>
+  <si>
+    <t>Admin types a string value and the modal notifies the admin to use an integer</t>
+  </si>
+  <si>
+    <t>Admin types a string value and the modal notifies the admin to use an time.</t>
+  </si>
+  <si>
+    <t>Admin updates the opening and closing hours  on the settings page and clicks update.</t>
+  </si>
+  <si>
+    <t>Admin types a time format and the page refreshes reflecting the update</t>
   </si>
 </sst>
 </file>
@@ -457,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727A5183-59B9-4DBC-873A-A2F81C765AD6}">
-  <dimension ref="C4:F15"/>
+  <dimension ref="C4:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,73 +587,152 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:6" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+    <row r="5" spans="3:6" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="3:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="3:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="3:6" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
+    <row r="8" spans="3:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="3:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+    <row r="9" spans="3:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="3:6" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+    <row r="10" spans="3:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="3:6" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+    <row r="11" spans="3:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="3:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+    <row r="12" spans="3:6" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="3:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+    <row r="13" spans="3:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="3:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+    <row r="14" spans="3:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="3:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+    <row r="15" spans="3:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="3:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>